--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efna5-Epha4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efna5-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,10 @@
     <t>Epha4</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H2">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I2">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J2">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.36173227849925</v>
+        <v>7.727270999999999</v>
       </c>
       <c r="N2">
-        <v>7.36173227849925</v>
+        <v>23.181813</v>
       </c>
       <c r="O2">
-        <v>0.4506279295385468</v>
+        <v>0.4492515923977304</v>
       </c>
       <c r="P2">
-        <v>0.4506279295385468</v>
+        <v>0.4784711627054499</v>
       </c>
       <c r="Q2">
-        <v>7.195126899050852</v>
+        <v>1.331068793376</v>
       </c>
       <c r="R2">
-        <v>7.195126899050852</v>
+        <v>11.979619140384</v>
       </c>
       <c r="S2">
-        <v>0.2988752349519694</v>
+        <v>0.04528449132087289</v>
       </c>
       <c r="T2">
-        <v>0.2988752349519694</v>
+        <v>0.05344132590597894</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H3">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I3">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J3">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.97705345708693</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N3">
-        <v>5.97705345708693</v>
+        <v>18.878545</v>
       </c>
       <c r="O3">
-        <v>0.3658686735966679</v>
+        <v>0.3658564756519351</v>
       </c>
       <c r="P3">
-        <v>0.3658686735966679</v>
+        <v>0.3896519817642027</v>
       </c>
       <c r="Q3">
-        <v>5.841785123285971</v>
+        <v>1.083980882506667</v>
       </c>
       <c r="R3">
-        <v>5.841785123285971</v>
+        <v>9.75582794256</v>
       </c>
       <c r="S3">
-        <v>0.2426593617815599</v>
+        <v>0.03687827639724332</v>
       </c>
       <c r="T3">
-        <v>0.2426593617815599</v>
+        <v>0.04352094790755534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H4">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I4">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J4">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.99782324033289</v>
+        <v>0.021228</v>
       </c>
       <c r="N4">
-        <v>2.99782324033289</v>
+        <v>0.063684</v>
       </c>
       <c r="O4">
-        <v>0.1835033968647853</v>
+        <v>0.001234163109255392</v>
       </c>
       <c r="P4">
-        <v>0.1835033968647853</v>
+        <v>0.001314433755709007</v>
       </c>
       <c r="Q4">
-        <v>2.929978681527947</v>
+        <v>0.003656650368</v>
       </c>
       <c r="R4">
-        <v>2.929978681527947</v>
+        <v>0.03290985331200001</v>
       </c>
       <c r="S4">
-        <v>0.1217071052577884</v>
+        <v>0.0001244034513296466</v>
       </c>
       <c r="T4">
-        <v>0.1217071052577884</v>
+        <v>0.000146811528459675</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.496255027007284</v>
+        <v>0.172256</v>
       </c>
       <c r="H5">
-        <v>0.496255027007284</v>
+        <v>0.516768</v>
       </c>
       <c r="I5">
-        <v>0.3367582980086823</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J5">
-        <v>0.3367582980086823</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>7.36173227849925</v>
+        <v>0.007773333333333333</v>
       </c>
       <c r="N5">
-        <v>7.36173227849925</v>
+        <v>0.02332</v>
       </c>
       <c r="O5">
-        <v>0.4506279295385468</v>
+        <v>0.0004519295852621654</v>
       </c>
       <c r="P5">
-        <v>0.4506279295385468</v>
+        <v>0.0004813233336965963</v>
       </c>
       <c r="Q5">
-        <v>3.65329665068704</v>
+        <v>0.001339003306666667</v>
       </c>
       <c r="R5">
-        <v>3.65329665068704</v>
+        <v>0.01205102976</v>
       </c>
       <c r="S5">
-        <v>0.1517526945865774</v>
+        <v>4.555443258914891E-05</v>
       </c>
       <c r="T5">
-        <v>0.1517526945865774</v>
+        <v>5.375989014006061E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.496255027007284</v>
+        <v>0.172256</v>
       </c>
       <c r="H6">
-        <v>0.496255027007284</v>
+        <v>0.516768</v>
       </c>
       <c r="I6">
-        <v>0.3367582980086823</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J6">
-        <v>0.3367582980086823</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.97705345708693</v>
+        <v>3.151199</v>
       </c>
       <c r="N6">
-        <v>5.97705345708693</v>
+        <v>6.302398</v>
       </c>
       <c r="O6">
-        <v>0.3658686735966679</v>
+        <v>0.183205839255817</v>
       </c>
       <c r="P6">
-        <v>0.3658686735966679</v>
+        <v>0.1300810984409417</v>
       </c>
       <c r="Q6">
-        <v>2.966142824770654</v>
+        <v>0.542812934944</v>
       </c>
       <c r="R6">
-        <v>2.966142824770654</v>
+        <v>3.256877609664</v>
       </c>
       <c r="S6">
-        <v>0.123209311815108</v>
+        <v>0.01846712037999487</v>
       </c>
       <c r="T6">
-        <v>0.123209311815108</v>
+        <v>0.0145289976028704</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,619 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.036691</v>
+      </c>
+      <c r="H7">
+        <v>3.110073</v>
+      </c>
+      <c r="I7">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J7">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.727270999999999</v>
+      </c>
+      <c r="N7">
+        <v>23.181813</v>
+      </c>
+      <c r="O7">
+        <v>0.4492515923977304</v>
+      </c>
+      <c r="P7">
+        <v>0.4784711627054499</v>
+      </c>
+      <c r="Q7">
+        <v>8.010792300260999</v>
+      </c>
+      <c r="R7">
+        <v>72.09713070234899</v>
+      </c>
+      <c r="S7">
+        <v>0.2725363679170946</v>
+      </c>
+      <c r="T7">
+        <v>0.3216267740734443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.036691</v>
+      </c>
+      <c r="H8">
+        <v>3.110073</v>
+      </c>
+      <c r="I8">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J8">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.292848333333333</v>
+      </c>
+      <c r="N8">
+        <v>18.878545</v>
+      </c>
+      <c r="O8">
+        <v>0.3658564756519351</v>
+      </c>
+      <c r="P8">
+        <v>0.3896519817642027</v>
+      </c>
+      <c r="Q8">
+        <v>6.523739231531666</v>
+      </c>
+      <c r="R8">
+        <v>58.713653083785</v>
+      </c>
+      <c r="S8">
+        <v>0.2219451121385297</v>
+      </c>
+      <c r="T8">
+        <v>0.261922806794721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.036691</v>
+      </c>
+      <c r="H9">
+        <v>3.110073</v>
+      </c>
+      <c r="I9">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J9">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.021228</v>
+      </c>
+      <c r="N9">
+        <v>0.063684</v>
+      </c>
+      <c r="O9">
+        <v>0.001234163109255392</v>
+      </c>
+      <c r="P9">
+        <v>0.001314433755709007</v>
+      </c>
+      <c r="Q9">
+        <v>0.022006876548</v>
+      </c>
+      <c r="R9">
+        <v>0.198061888932</v>
+      </c>
+      <c r="S9">
+        <v>0.0007486992520573025</v>
+      </c>
+      <c r="T9">
+        <v>0.0008835581358581931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.036691</v>
+      </c>
+      <c r="H10">
+        <v>3.110073</v>
+      </c>
+      <c r="I10">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J10">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.02332</v>
+      </c>
+      <c r="O10">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="P10">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="Q10">
+        <v>0.008058544706666667</v>
+      </c>
+      <c r="R10">
+        <v>0.07252690235999999</v>
+      </c>
+      <c r="S10">
+        <v>0.0002741609597069326</v>
+      </c>
+      <c r="T10">
+        <v>0.0003235439942248141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.036691</v>
+      </c>
+      <c r="H11">
+        <v>3.110073</v>
+      </c>
+      <c r="I11">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J11">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.151199</v>
+      </c>
+      <c r="N11">
+        <v>6.302398</v>
+      </c>
+      <c r="O11">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="P11">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="Q11">
+        <v>3.266819642509</v>
+      </c>
+      <c r="R11">
+        <v>19.600917855054</v>
+      </c>
+      <c r="S11">
+        <v>0.1111409616724948</v>
+      </c>
+      <c r="T11">
+        <v>0.08744009528792795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4999445</v>
+      </c>
+      <c r="H12">
+        <v>0.999889</v>
+      </c>
+      <c r="I12">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J12">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.727270999999999</v>
+      </c>
+      <c r="N12">
+        <v>23.181813</v>
+      </c>
+      <c r="O12">
+        <v>0.4492515923977304</v>
+      </c>
+      <c r="P12">
+        <v>0.4784711627054499</v>
+      </c>
+      <c r="Q12">
+        <v>3.8632066364595</v>
+      </c>
+      <c r="R12">
+        <v>23.179239818757</v>
+      </c>
+      <c r="S12">
+        <v>0.131430733159763</v>
+      </c>
+      <c r="T12">
+        <v>0.1034030627260267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.496255027007284</v>
-      </c>
-      <c r="H7">
-        <v>0.496255027007284</v>
-      </c>
-      <c r="I7">
-        <v>0.3367582980086823</v>
-      </c>
-      <c r="J7">
-        <v>0.3367582980086823</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.99782324033289</v>
-      </c>
-      <c r="N7">
-        <v>2.99782324033289</v>
-      </c>
-      <c r="O7">
-        <v>0.1835033968647853</v>
-      </c>
-      <c r="P7">
-        <v>0.1835033968647853</v>
-      </c>
-      <c r="Q7">
-        <v>1.487684853094462</v>
-      </c>
-      <c r="R7">
-        <v>1.487684853094462</v>
-      </c>
-      <c r="S7">
-        <v>0.06179629160699685</v>
-      </c>
-      <c r="T7">
-        <v>0.06179629160699685</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4999445</v>
+      </c>
+      <c r="H13">
+        <v>0.999889</v>
+      </c>
+      <c r="I13">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J13">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.292848333333333</v>
+      </c>
+      <c r="N13">
+        <v>18.878545</v>
+      </c>
+      <c r="O13">
+        <v>0.3658564756519351</v>
+      </c>
+      <c r="P13">
+        <v>0.3896519817642027</v>
+      </c>
+      <c r="Q13">
+        <v>3.146074913584167</v>
+      </c>
+      <c r="R13">
+        <v>18.876449481505</v>
+      </c>
+      <c r="S13">
+        <v>0.1070330871161621</v>
+      </c>
+      <c r="T13">
+        <v>0.08420822706192643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4999445</v>
+      </c>
+      <c r="H14">
+        <v>0.999889</v>
+      </c>
+      <c r="I14">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J14">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.021228</v>
+      </c>
+      <c r="N14">
+        <v>0.063684</v>
+      </c>
+      <c r="O14">
+        <v>0.001234163109255392</v>
+      </c>
+      <c r="P14">
+        <v>0.001314433755709007</v>
+      </c>
+      <c r="Q14">
+        <v>0.010612821846</v>
+      </c>
+      <c r="R14">
+        <v>0.063676931076</v>
+      </c>
+      <c r="S14">
+        <v>0.000361060405868443</v>
+      </c>
+      <c r="T14">
+        <v>0.0002840640913911386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4999445</v>
+      </c>
+      <c r="H15">
+        <v>0.999889</v>
+      </c>
+      <c r="I15">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J15">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.02332</v>
+      </c>
+      <c r="O15">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="P15">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="Q15">
+        <v>0.003886235246666667</v>
+      </c>
+      <c r="R15">
+        <v>0.02331741148</v>
+      </c>
+      <c r="S15">
+        <v>0.000132214192966084</v>
+      </c>
+      <c r="T15">
+        <v>0.0001040194493317215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4999445</v>
+      </c>
+      <c r="H16">
+        <v>0.999889</v>
+      </c>
+      <c r="I16">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J16">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.151199</v>
+      </c>
+      <c r="N16">
+        <v>6.302398</v>
+      </c>
+      <c r="O16">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="P16">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="Q16">
+        <v>1.5754246084555</v>
+      </c>
+      <c r="R16">
+        <v>6.301698433822001</v>
+      </c>
+      <c r="S16">
+        <v>0.0535977572033273</v>
+      </c>
+      <c r="T16">
+        <v>0.02811200555014335</v>
       </c>
     </row>
   </sheetData>
